--- a/storage/talents_export.xlsx
+++ b/storage/talents_export.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\clerina\storage\app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226AC6A-FF1A-4528-8085-A33E4B865B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C417B-C457-4C6A-B7A5-C6096445E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
   <si>
     <t>username</t>
   </si>
@@ -105,130 +94,147 @@
     <t>tax_deduction</t>
   </si>
   <si>
+    <t>onedinda</t>
+  </si>
+  <si>
+    <t>Adinda Putri</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>Red Saviour Exfoliating Serum</t>
+  </si>
+  <si>
     <t>Cantika</t>
   </si>
   <si>
+    <t>JUNI</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawa timur, kab probolinggo, kraksaan Jl. Letjend suprapto RT 04, RW 03, Desa bulu (blkg begkel las) kode pos 67282
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0895‑3672‑35538
+</t>
+  </si>
+  <si>
+    <t>Seabank</t>
+  </si>
+  <si>
+    <t>901675464581</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>3513085307060004</t>
+  </si>
+  <si>
+    <t>skincarewanita.id</t>
+  </si>
+  <si>
+    <t>Khusnul Khotimah</t>
+  </si>
+  <si>
+    <t>Reels PP</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>JULI</t>
+  </si>
+  <si>
+    <t>85803078329</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>1540597762</t>
+  </si>
+  <si>
+    <t>39629258533000</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>3323045107980002</t>
+  </si>
+  <si>
+    <t>inspirasiwanita.idn</t>
+  </si>
+  <si>
+    <t>cumaskincare</t>
+  </si>
+  <si>
+    <t>Muhammad David Supriyanto</t>
+  </si>
+  <si>
+    <t>85713751765</t>
+  </si>
+  <si>
+    <t>8365309295</t>
+  </si>
+  <si>
+    <t>958998064515000</t>
+  </si>
+  <si>
+    <t>3321080211010002</t>
+  </si>
+  <si>
+    <t>kataloghaulcewek</t>
+  </si>
+  <si>
+    <t>Mandela Citra Putu Sarjana</t>
+  </si>
+  <si>
+    <t>81222316800</t>
+  </si>
+  <si>
+    <t>445-1956-811</t>
+  </si>
+  <si>
+    <t>3471146109930001</t>
+  </si>
+  <si>
+    <t>katalogbelanjacewek</t>
+  </si>
+  <si>
+    <t>skincaretiaphari</t>
+  </si>
+  <si>
+    <t>gadiscare</t>
+  </si>
+  <si>
+    <t>Dian Wahyu</t>
+  </si>
+  <si>
     <t>Nadia</t>
   </si>
   <si>
-    <t>Mandiri</t>
-  </si>
-  <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNI </t>
-  </si>
-  <si>
-    <t>dtmrtn0</t>
-  </si>
-  <si>
-    <t>Dita Martiana</t>
-  </si>
-  <si>
-    <t>BRI</t>
-  </si>
-  <si>
-    <t>thisisalulaa</t>
-  </si>
-  <si>
-    <t>Aura Ghalliyah Danielle</t>
-  </si>
-  <si>
-    <t>racunaku77</t>
-  </si>
-  <si>
-    <t>Rina marlina</t>
-  </si>
-  <si>
-    <t>kodekeras_ig</t>
-  </si>
-  <si>
-    <t>0901485126</t>
-  </si>
-  <si>
-    <t>69.568.532.1-125.000</t>
-  </si>
-  <si>
-    <t>lagiviral_indo</t>
-  </si>
-  <si>
-    <t>lagiupdate_indo</t>
-  </si>
-  <si>
-    <t>lagitrend_indo</t>
-  </si>
-  <si>
-    <t>lagibooming_indo</t>
-  </si>
-  <si>
-    <t>beritaviral_indoo</t>
-  </si>
-  <si>
-    <t>beritatrend_indo</t>
-  </si>
-  <si>
-    <t>beritabooming_indo</t>
-  </si>
-  <si>
-    <t>beritaupdate_indo</t>
-  </si>
-  <si>
-    <t>daily.racun</t>
-  </si>
-  <si>
-    <t>ka.hairunisa</t>
-  </si>
-  <si>
-    <t>Faisal jafar fathoni</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RENDY GRANADA</t>
-  </si>
-  <si>
-    <t>Wardah</t>
-  </si>
-  <si>
-    <t>Khairunisa Putri Sendjaya</t>
-  </si>
-  <si>
-    <t>Paid promote</t>
-  </si>
-  <si>
-    <t>Reels Paid Promote</t>
-  </si>
-  <si>
-    <t>5x reels/pp</t>
-  </si>
-  <si>
-    <t>Reels/pp</t>
-  </si>
-  <si>
-    <t>TIKTOK</t>
-  </si>
-  <si>
-    <t>Tiktok</t>
-  </si>
-  <si>
-    <t>mandiri</t>
-  </si>
-  <si>
-    <t>20.997.292.6-543.000</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Pay Day Promo</t>
-  </si>
-  <si>
-    <t>Red Saviour</t>
-  </si>
-  <si>
-    <t>Oktober</t>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>0851-5614-6799</t>
+  </si>
+  <si>
+    <t>154098475</t>
+  </si>
+  <si>
+    <t>3319020801980001</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>gadislife</t>
   </si>
 </sst>
 </file>
@@ -591,20 +597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -682,108 +681,135 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>2566000</v>
+        <v>9231000</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>474300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2">
-        <v>3572010308000003</v>
-      </c>
-      <c r="S2">
-        <v>3572010308000003</v>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2">
+        <v>2000000</v>
       </c>
       <c r="U2">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>12434000</v>
+        <v>769000</v>
       </c>
       <c r="W2">
         <v>5</v>
       </c>
       <c r="X2">
-        <v>64150</v>
+        <v>230775</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>514000</v>
+        <v>180000</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3">
-        <v>1150007827431</v>
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3">
-        <v>930077953419000</v>
-      </c>
-      <c r="S3">
-        <v>3601325502010001</v>
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3">
+        <v>55000</v>
       </c>
       <c r="U3">
-        <v>2570000</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2056000</v>
+        <v>40000</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>12850</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -791,696 +817,448 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>700000</v>
+        <v>148000</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4">
-        <v>9000044138551</v>
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4">
-        <v>3402091107010002</v>
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4">
+        <v>45000</v>
       </c>
       <c r="U4">
-        <v>3750000</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3050000</v>
+        <v>32000</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>17500</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>369000</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>1026000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5">
-        <v>334501004581506</v>
-      </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5">
+        <v>100000</v>
       </c>
       <c r="U5">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-26000</v>
+        <v>31000</v>
       </c>
       <c r="W5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>25650</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>450000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <v>1540000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
+      <c r="L6" t="s">
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6">
-        <v>1100943499</v>
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6">
-        <v>3202145103020003</v>
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6">
+        <v>130000</v>
       </c>
       <c r="U6">
-        <v>2250000</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>710000</v>
+        <v>70000</v>
       </c>
       <c r="W6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="X6">
-        <v>38500</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>514000</v>
+        <v>450000</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7">
-        <v>1150007827431</v>
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7">
-        <v>930077953419000</v>
-      </c>
-      <c r="S7">
-        <v>3601325502010001</v>
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7">
+        <v>130000</v>
       </c>
       <c r="U7">
-        <v>2570000</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>2056000</v>
+        <v>70000</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7">
-        <v>12850</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>450000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <v>85500</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
       <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8">
-        <v>334501004581506</v>
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8">
+        <v>130000</v>
       </c>
       <c r="U8">
-        <v>85500</v>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>70000</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>2137</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>85500</v>
+        <v>306000</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>65</v>
       </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
       <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9">
-        <v>334501004581506</v>
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9">
+        <v>150000</v>
       </c>
       <c r="U9">
-        <v>85500</v>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>144000</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>2137</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>85500</v>
+        <v>244000</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
         <v>65</v>
       </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
       <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>334501004581506</v>
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10">
+        <v>150000</v>
       </c>
       <c r="U10">
-        <v>85500</v>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>206000</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11">
-        <v>85500</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11">
-        <v>334501004581506</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11">
-        <v>85500</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12">
-        <v>85500</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12">
-        <v>334501004581506</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s">
-        <v>39</v>
-      </c>
-      <c r="U12">
-        <v>85500</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>85500</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13">
-        <v>334501004581506</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13">
-        <v>85500</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14">
-        <v>85500</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14">
-        <v>334501004581506</v>
-      </c>
-      <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14">
-        <v>85500</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15">
-        <v>2566000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15">
-        <v>3572010308000003</v>
-      </c>
-      <c r="S15">
-        <v>3572010308000003</v>
-      </c>
-      <c r="U15">
-        <v>15000000</v>
-      </c>
-      <c r="V15">
-        <v>12434000</v>
-      </c>
-      <c r="W15">
-        <v>5</v>
-      </c>
-      <c r="X15">
-        <v>64150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16">
-        <v>2462000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <v>5735448495</v>
-      </c>
-      <c r="O16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16">
-        <v>3173084604041003</v>
-      </c>
-      <c r="U16">
-        <v>2700000</v>
-      </c>
-      <c r="V16">
-        <v>238000</v>
-      </c>
-      <c r="W16">
-        <v>3</v>
-      </c>
-      <c r="X16">
-        <v>61550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17">
-        <v>20464000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <v>7115074628</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17">
-        <v>3275114109980008</v>
-      </c>
-      <c r="U17">
-        <v>21000000</v>
-      </c>
-      <c r="V17">
-        <v>536000</v>
-      </c>
-      <c r="W17">
-        <v>3</v>
-      </c>
-      <c r="X17">
-        <v>511600</v>
+        <v>6100</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input Error" error="Numbers only" promptTitle="Validation" prompt="Enter number" sqref="C2:C17 S2:S17 P2:P17 W2:W17" xr:uid="{3E26FB22-769B-475F-BDB4-B4D08B6FB7AE}"/>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/storage/talents_export.xlsx
+++ b/storage/talents_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C417B-C457-4C6A-B7A5-C6096445E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E2B2B-3227-4911-832F-3FFBD2DADF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>username</t>
   </si>
@@ -94,7 +94,7 @@
     <t>tax_deduction</t>
   </si>
   <si>
-    <t>onedinda</t>
+    <t>onedinda (batch 2)</t>
   </si>
   <si>
     <t>Adinda Putri</t>
@@ -103,13 +103,13 @@
     <t>VT</t>
   </si>
   <si>
-    <t>Red Saviour Exfoliating Serum</t>
-  </si>
-  <si>
-    <t>Cantika</t>
-  </si>
-  <si>
-    <t>JUNI</t>
+    <t>Cleora Exfoliating gel</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>JULI</t>
   </si>
   <si>
     <t>Beauty</t>
@@ -123,19 +123,19 @@
 </t>
   </si>
   <si>
-    <t>Seabank</t>
-  </si>
-  <si>
-    <t>901675464581</t>
-  </si>
-  <si>
-    <t>2024-06-07</t>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>2010731146</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
   </si>
   <si>
     <t>3513085307060004</t>
   </si>
   <si>
-    <t>skincarewanita.id</t>
+    <t>skincarewanita.id (batch 2)</t>
   </si>
   <si>
     <t>Khusnul Khotimah</t>
@@ -144,52 +144,31 @@
     <t>Reels PP</t>
   </si>
   <si>
-    <t>Rani</t>
-  </si>
-  <si>
-    <t>JULI</t>
+    <t>Red Saviour Exfoliating Serum</t>
+  </si>
+  <si>
+    <t>AGUSTUS</t>
   </si>
   <si>
     <t>85803078329</t>
   </si>
   <si>
-    <t>BCA</t>
-  </si>
-  <si>
     <t>1540597762</t>
   </si>
   <si>
     <t>39629258533000</t>
   </si>
   <si>
-    <t>2024-07-22</t>
+    <t>2024-08-14</t>
   </si>
   <si>
     <t>3323045107980002</t>
   </si>
   <si>
-    <t>inspirasiwanita.idn</t>
-  </si>
-  <si>
-    <t>cumaskincare</t>
-  </si>
-  <si>
-    <t>Muhammad David Supriyanto</t>
-  </si>
-  <si>
-    <t>85713751765</t>
-  </si>
-  <si>
-    <t>8365309295</t>
-  </si>
-  <si>
-    <t>958998064515000</t>
-  </si>
-  <si>
-    <t>3321080211010002</t>
-  </si>
-  <si>
-    <t>kataloghaulcewek</t>
+    <t>inspirasiwanita.idn (batch 2)</t>
+  </si>
+  <si>
+    <t>kataloghaulcewek (batch 2)</t>
   </si>
   <si>
     <t>Mandela Citra Putu Sarjana</t>
@@ -204,37 +183,10 @@
     <t>3471146109930001</t>
   </si>
   <si>
-    <t>katalogbelanjacewek</t>
-  </si>
-  <si>
-    <t>skincaretiaphari</t>
-  </si>
-  <si>
-    <t>gadiscare</t>
-  </si>
-  <si>
-    <t>Dian Wahyu</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>SEPTEMBER</t>
-  </si>
-  <si>
-    <t>0851-5614-6799</t>
-  </si>
-  <si>
-    <t>154098475</t>
-  </si>
-  <si>
-    <t>3319020801980001</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>gadislife</t>
+    <t>katalogbelanjacewek (batch 2)</t>
+  </si>
+  <si>
+    <t>skincaretiaphari (batch 2)</t>
   </si>
 </sst>
 </file>
@@ -597,13 +549,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -696,7 +651,7 @@
         <v>27</v>
       </c>
       <c r="F2">
-        <v>9231000</v>
+        <v>29250000</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -738,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>769000</v>
+        <v>750000</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="X2">
-        <v>230775</v>
+        <v>731250</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -761,13 +716,13 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>180000</v>
+        <v>272000</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
@@ -779,42 +734,42 @@
         <v>42</v>
       </c>
       <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
         <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
       </c>
       <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
       <c r="T3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X3">
-        <v>4500</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -826,13 +781,13 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>148000</v>
+        <v>272000</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
@@ -844,45 +799,45 @@
         <v>42</v>
       </c>
       <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
       <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>46</v>
       </c>
-      <c r="S4" t="s">
-        <v>47</v>
-      </c>
       <c r="T4">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>3700</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -891,13 +846,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>369000</v>
+        <v>838000</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -906,48 +861,45 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="s">
-        <v>54</v>
-      </c>
       <c r="T5">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>31000</v>
+        <v>62000</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X5">
-        <v>9225</v>
+        <v>20950</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -956,13 +908,13 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>450000</v>
+        <v>838000</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
@@ -971,45 +923,45 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="T6">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>70000</v>
+        <v>62000</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X6">
-        <v>11250</v>
+        <v>20950</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1018,13 +970,13 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>450000</v>
+        <v>540000</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
@@ -1033,229 +985,37 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="T7">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X7">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <v>450000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8">
-        <v>130000</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>70000</v>
-      </c>
-      <c r="W8">
-        <v>4</v>
-      </c>
-      <c r="X8">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>306000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>69</v>
-      </c>
-      <c r="S9" t="s">
-        <v>68</v>
-      </c>
-      <c r="T9">
-        <v>150000</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>144000</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="X9">
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>244000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10">
-        <v>150000</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>206000</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>6100</v>
+        <v>13500</v>
       </c>
     </row>
   </sheetData>

--- a/storage/talents_export.xlsx
+++ b/storage/talents_export.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\clerina\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E2B2B-3227-4911-832F-3FFBD2DADF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089411B3-D0C1-4664-9430-09328F31D052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -94,19 +94,19 @@
     <t>tax_deduction</t>
   </si>
   <si>
-    <t>onedinda (batch 2)</t>
-  </si>
-  <si>
-    <t>Adinda Putri</t>
+    <t>iki_533</t>
+  </si>
+  <si>
+    <t>Rizki Fauzi</t>
   </si>
   <si>
     <t>VT</t>
   </si>
   <si>
-    <t>Cleora Exfoliating gel</t>
-  </si>
-  <si>
-    <t>Nadia</t>
+    <t>Red Saviour Exfoliating Serum</t>
+  </si>
+  <si>
+    <t>Cantika</t>
   </si>
   <si>
     <t>JULI</t>
@@ -115,78 +115,52 @@
     <t>Beauty</t>
   </si>
   <si>
-    <t xml:space="preserve">Jawa timur, kab probolinggo, kraksaan Jl. Letjend suprapto RT 04, RW 03, Desa bulu (blkg begkel las) kode pos 67282
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0895‑3672‑35538
-</t>
+    <t>Kp sukajaya, rt 1/ rw 6, desa cibeureum, kecamatan kertasari, kabupaten bandung.</t>
+  </si>
+  <si>
+    <t>82376920762</t>
+  </si>
+  <si>
+    <t>Jago</t>
+  </si>
+  <si>
+    <t>101747610594</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>3,20431E+15</t>
+  </si>
+  <si>
+    <t>naltavia</t>
+  </si>
+  <si>
+    <t>Nidya Altamevia</t>
+  </si>
+  <si>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>jl.sisingamangaraja Gg goa jajar no 30A Rt14 Tanjung Karang Barat Bandar Lampung</t>
+  </si>
+  <si>
+    <t>81330343422</t>
   </si>
   <si>
     <t>BCA</t>
   </si>
   <si>
-    <t>2010731146</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>3513085307060004</t>
-  </si>
-  <si>
-    <t>skincarewanita.id (batch 2)</t>
-  </si>
-  <si>
-    <t>Khusnul Khotimah</t>
-  </si>
-  <si>
-    <t>Reels PP</t>
-  </si>
-  <si>
-    <t>Red Saviour Exfoliating Serum</t>
-  </si>
-  <si>
-    <t>AGUSTUS</t>
-  </si>
-  <si>
-    <t>85803078329</t>
-  </si>
-  <si>
-    <t>1540597762</t>
-  </si>
-  <si>
-    <t>39629258533000</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>3323045107980002</t>
-  </si>
-  <si>
-    <t>inspirasiwanita.idn (batch 2)</t>
-  </si>
-  <si>
-    <t>kataloghaulcewek (batch 2)</t>
-  </si>
-  <si>
-    <t>Mandela Citra Putu Sarjana</t>
-  </si>
-  <si>
-    <t>81222316800</t>
-  </si>
-  <si>
-    <t>445-1956-811</t>
-  </si>
-  <si>
-    <t>3471146109930001</t>
-  </si>
-  <si>
-    <t>katalogbelanjacewek (batch 2)</t>
-  </si>
-  <si>
-    <t>skincaretiaphari (batch 2)</t>
+    <t>231942466</t>
+  </si>
+  <si>
+    <t>NIDYA ALTAMEVIA</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>1871035801060002</t>
   </si>
 </sst>
 </file>
@@ -549,16 +523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -651,7 +622,7 @@
         <v>27</v>
       </c>
       <c r="F2">
-        <v>29250000</v>
+        <v>1544000</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -663,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="J2">
-        <v>474300</v>
+        <v>33000</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
@@ -687,19 +658,19 @@
         <v>36</v>
       </c>
       <c r="T2">
-        <v>2000000</v>
+        <v>550000</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>750000</v>
+        <v>106000</v>
       </c>
       <c r="W2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>731250</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -713,36 +684,36 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>272000</v>
+        <v>2872000</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
       <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
         <v>44</v>
       </c>
       <c r="Q3" t="s">
@@ -752,270 +723,19 @@
         <v>46</v>
       </c>
       <c r="T3">
-        <v>50000</v>
+        <v>350000</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>28000</v>
+        <v>978000</v>
       </c>
       <c r="W3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X3">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>272000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4">
-        <v>50000</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>28000</v>
-      </c>
-      <c r="W4">
-        <v>6</v>
-      </c>
-      <c r="X4">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>838000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5">
-        <v>150000</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>62000</v>
-      </c>
-      <c r="W5">
-        <v>6</v>
-      </c>
-      <c r="X5">
-        <v>20950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>838000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6">
-        <v>150000</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>62000</v>
-      </c>
-      <c r="W6">
-        <v>6</v>
-      </c>
-      <c r="X6">
-        <v>20950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>540000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7">
-        <v>100000</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>60000</v>
-      </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>13500</v>
+        <v>71800</v>
       </c>
     </row>
   </sheetData>
